--- a/Simulated Runtime of Code.xlsx
+++ b/Simulated Runtime of Code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\DrosselklappenRegelung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE782193-8D57-490A-BE94-076761B5CC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0732F85-9951-4FCE-A492-B5A029F700D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="4290" windowWidth="21600" windowHeight="11295" xr2:uid="{201BDFFD-44DA-46C6-AC36-91A8410A82C1}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12585" xr2:uid="{201BDFFD-44DA-46C6-AC36-91A8410A82C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
